--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1810679.092652851</v>
+        <v>1827001.72144975</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3047469.35616629</v>
+        <v>3047469.356166289</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3753479.580661339</v>
+        <v>3753479.58066134</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9476177.508527294</v>
+        <v>9476177.508527292</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>74.0428859370281</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -797,7 +797,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>113.8273763812739</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>190.3453970742847</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,13 +986,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>74.21245223256827</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>7.696674103242771</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.97365353379637</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>330.6289042806821</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.3986648384055</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>73.95430291245181</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>19.59299030330403</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>358.8951286088068</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>216.0954061087065</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>52.12826197648499</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>112.3904931322795</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>308.7225161755968</v>
       </c>
       <c r="I17" t="n">
-        <v>94.71096793404134</v>
+        <v>94.71096793404135</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>251.1054299980146</v>
       </c>
       <c r="V17" t="n">
-        <v>270.3701088320626</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>254.3381857784673</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>96.71875811648746</v>
       </c>
       <c r="I18" t="n">
-        <v>34.08056289588797</v>
+        <v>34.08056289588798</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4056957716951217</v>
+        <v>0.4056957716951359</v>
       </c>
       <c r="S18" t="n">
         <v>141.8406798603146</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>57.50867474152822</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.6440327662452</v>
+        <v>138.5309989385883</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>150.2515928057593</v>
       </c>
       <c r="I19" t="n">
-        <v>114.9441174086916</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2455595423701</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>412.2999511423612</v>
       </c>
       <c r="H20" t="n">
-        <v>308.7225161755968</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>63.75543163963748</v>
+        <v>94.71096793404135</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>140.5940751166608</v>
       </c>
       <c r="T20" t="n">
         <v>209.9511522173138</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1054299980146</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>213.819733236651</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>96.71875811648746</v>
       </c>
       <c r="I21" t="n">
-        <v>34.08056289588797</v>
+        <v>34.08056289588798</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4056957716951217</v>
+        <v>0.4056957716951359</v>
       </c>
       <c r="S21" t="n">
         <v>141.8406798603146</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.6440327662452</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>150.2515928057593</v>
       </c>
       <c r="I22" t="n">
         <v>114.9441174086916</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.1904539888237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2455595423701</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>79.44495655738487</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>168.5306638552839</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>78.93197226667245</v>
       </c>
       <c r="G23" t="n">
         <v>412.2999511423612</v>
@@ -2338,7 +2338,7 @@
         <v>308.7225161755968</v>
       </c>
       <c r="I23" t="n">
-        <v>94.71096793404134</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.21192547858863</v>
+        <v>140.5940751166608</v>
       </c>
       <c r="T23" t="n">
         <v>209.9511522173138</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.5832934050163</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>150.2515928057593</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>114.9441174086916</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.1904539888237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>8.449157703452382</v>
       </c>
     </row>
     <row r="26">
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>387.6544884422692</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>412.2999511423612</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>308.7225161755968</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>94.71096793404134</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>140.5940751166608</v>
+        <v>99.8694037798445</v>
       </c>
       <c r="T26" t="n">
         <v>209.9511522173138</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.5429924253966</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.1904539888237</v>
       </c>
       <c r="U28" t="n">
-        <v>93.47166292338257</v>
+        <v>286.2455595423701</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.00210219047095</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>78.93197226667334</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>412.2999511423612</v>
@@ -2812,7 +2812,7 @@
         <v>308.7225161755968</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>94.71096793404134</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>140.5940751166608</v>
+        <v>67.18000242499517</v>
       </c>
       <c r="T29" t="n">
         <v>209.9511522173138</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>123.9219379279567</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>116.7297746036414</v>
       </c>
       <c r="S31" t="n">
-        <v>9.6421354482793</v>
+        <v>200.5429924253966</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.1904539888237</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2455595423701</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>219.5260473833342</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>412.2999511423612</v>
@@ -3049,7 +3049,7 @@
         <v>308.7225161755968</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>94.71096793404134</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>251.1054299980146</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>45.69129217771704</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22.52053139638256</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>114.9441174086916</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>222.1904539888237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2455595423701</v>
       </c>
       <c r="V34" t="n">
-        <v>40.98508171892995</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>396.5209554749922</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.2999511423612</v>
       </c>
       <c r="H35" t="n">
         <v>308.7225161755968</v>
       </c>
       <c r="I35" t="n">
-        <v>94.71096793404135</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>140.5940751166608</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.9511522173138</v>
+        <v>22.60115385893608</v>
       </c>
       <c r="U35" t="n">
         <v>251.1054299980146</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>93.25143821057361</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>150.2515928057593</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>114.9441174086916</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>222.1904539888237</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2455595423701</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>194.389073966076</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.2999511423612</v>
+        <v>393.0783938429189</v>
       </c>
       <c r="H38" t="n">
-        <v>308.7225161755968</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>94.71096793404135</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>140.5940751166608</v>
       </c>
       <c r="T38" t="n">
         <v>209.9511522173138</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>67.18000242499336</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>124.704618494758</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.6440327662452</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.93881135198637</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>116.7297746036414</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.5429924253966</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>222.1904539888237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>308.7225161755968</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>140.5940751166608</v>
+        <v>117.7252958848851</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1054299980146</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>154.7002402023447</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.791522585319873</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>145.1993913055064</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>116.7297746036414</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.2999511423612</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>94.71096793404135</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>140.5940751166608</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>93.57923368809334</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>243.6966939127772</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,7 +4152,7 @@
         <v>166.6440327662452</v>
       </c>
       <c r="H46" t="n">
-        <v>42.97130674435431</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.1904539888237</v>
       </c>
       <c r="U46" t="n">
         <v>286.2455595423701</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>105.1223407204785</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>297.2027203719481</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.4948343740486</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C3" t="n">
-        <v>298.4948343740486</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D3" t="n">
-        <v>298.4948343740486</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E3" t="n">
-        <v>298.4948343740486</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>298.4948343740486</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4445,16 +4445,16 @@
         <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="W3" t="n">
-        <v>298.4948343740486</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="X3" t="n">
-        <v>298.4948343740486</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.4948343740486</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F5" t="n">
-        <v>223.6192102101089</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787.9255531013317</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="C6" t="n">
-        <v>613.4725238202047</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D6" t="n">
-        <v>464.5381141589534</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>787.9255531013317</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>787.9255531013317</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>787.9255531013317</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>787.9255531013317</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>787.9255531013317</v>
+        <v>956.2827372245324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9255531013317</v>
+        <v>956.2827372245324</v>
       </c>
       <c r="Y6" t="n">
-        <v>787.9255531013317</v>
+        <v>748.5224384595786</v>
       </c>
     </row>
     <row r="7">
@@ -4707,25 +4707,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.2027203719481</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>297.2027203719481</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.2027203719481</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>878.2251822441752</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>703.7721529630483</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>554.837743301797</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>395.6002882963414</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4895,7 +4895,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4928,7 +4928,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5007,7 +5007,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1484.84104667963</v>
+        <v>796.7548707446076</v>
       </c>
       <c r="C11" t="n">
-        <v>1115.878529739218</v>
+        <v>796.7548707446076</v>
       </c>
       <c r="D11" t="n">
-        <v>1115.878529739218</v>
+        <v>438.4891721378571</v>
       </c>
       <c r="E11" t="n">
-        <v>1115.878529739218</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F11" t="n">
-        <v>704.8926249496105</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G11" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H11" t="n">
         <v>52.70091953961286</v>
@@ -5071,22 +5071,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T11" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U11" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V11" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.045976980643</v>
+        <v>1946.959801045621</v>
       </c>
       <c r="X11" t="n">
-        <v>2261.580218719563</v>
+        <v>1573.494042784541</v>
       </c>
       <c r="Y11" t="n">
-        <v>1871.440886743751</v>
+        <v>1183.354710808729</v>
       </c>
     </row>
     <row r="12">
@@ -5132,7 +5132,7 @@
         <v>1265.215628536193</v>
       </c>
       <c r="N12" t="n">
-        <v>1917.389507838902</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O12" t="n">
         <v>2188.341267297829</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.3219161054358</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C13" t="n">
-        <v>497.6206000322521</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="D13" t="n">
-        <v>347.5039606199164</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="E13" t="n">
         <v>199.5908670375232</v>
@@ -5229,22 +5229,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U13" t="n">
-        <v>827.0064043113226</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V13" t="n">
-        <v>572.3219161054358</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W13" t="n">
-        <v>572.3219161054358</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X13" t="n">
-        <v>572.3219161054358</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.3219161054358</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1266.562858691037</v>
+        <v>801.0095040659448</v>
       </c>
       <c r="C14" t="n">
-        <v>1266.562858691037</v>
+        <v>801.0095040659448</v>
       </c>
       <c r="D14" t="n">
-        <v>1266.562858691037</v>
+        <v>801.0095040659448</v>
       </c>
       <c r="E14" t="n">
-        <v>880.774606092793</v>
+        <v>415.2212514677006</v>
       </c>
       <c r="F14" t="n">
-        <v>469.7887013031854</v>
+        <v>415.2212514677006</v>
       </c>
       <c r="G14" t="n">
         <v>52.70091953961286</v>
@@ -5284,13 +5284,13 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L14" t="n">
-        <v>683.1408478992856</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M14" t="n">
-        <v>1314.858658882597</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N14" t="n">
-        <v>1942.166326942444</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O14" t="n">
         <v>2489.327531709521</v>
@@ -5314,16 +5314,16 @@
         <v>2635.045976980643</v>
       </c>
       <c r="V14" t="n">
-        <v>2635.045976980643</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W14" t="n">
-        <v>2416.767788992051</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X14" t="n">
-        <v>2043.302030730971</v>
+        <v>1577.748676105878</v>
       </c>
       <c r="Y14" t="n">
-        <v>1653.162698755159</v>
+        <v>1187.609344130067</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D15" t="n">
         <v>642.7351650238404</v>
@@ -5348,7 +5348,7 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H15" t="n">
         <v>98.60577654929637</v>
@@ -5369,19 +5369,19 @@
         <v>1265.215628536193</v>
       </c>
       <c r="N15" t="n">
-        <v>1917.389507838902</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O15" t="n">
-        <v>2466.825516591625</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.309035778665</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q15" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S15" t="n">
         <v>2464.467288245464</v>
@@ -5396,10 +5396,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y15" t="n">
         <v>1134.337940986287</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>422.2050061271705</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="C16" t="n">
-        <v>253.2688231992636</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="D16" t="n">
-        <v>200.614013122006</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70091953961286</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="F16" t="n">
-        <v>52.70091953961286</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="G16" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H16" t="n">
         <v>52.70091953961286</v>
@@ -5460,28 +5460,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R16" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S16" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T16" t="n">
-        <v>1052.635600998958</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="U16" t="n">
-        <v>1052.635600998958</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="V16" t="n">
-        <v>1052.635600998958</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="W16" t="n">
-        <v>1052.635600998958</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="X16" t="n">
-        <v>824.6460501009403</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="Y16" t="n">
-        <v>603.8534709574102</v>
+        <v>489.0881582831306</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2068.050077308024</v>
+        <v>2437.012594248436</v>
       </c>
       <c r="C17" t="n">
         <v>2068.050077308024</v>
@@ -5512,19 +5512,19 @@
         <v>184.7046987700299</v>
       </c>
       <c r="I17" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="J17" t="n">
         <v>329.5164204382982</v>
       </c>
       <c r="K17" t="n">
-        <v>810.6774565442975</v>
+        <v>810.677456544297</v>
       </c>
       <c r="L17" t="n">
         <v>1459.876896545253</v>
       </c>
       <c r="M17" t="n">
-        <v>2198.842906359703</v>
+        <v>2198.842906359704</v>
       </c>
       <c r="N17" t="n">
         <v>2935.134161232316</v>
@@ -5536,31 +5536,31 @@
         <v>4102.351921457031</v>
       </c>
       <c r="Q17" t="n">
-        <v>4413.485604678387</v>
+        <v>4413.485604678386</v>
       </c>
       <c r="R17" t="n">
-        <v>4451.852719610518</v>
+        <v>4451.852719610517</v>
       </c>
       <c r="S17" t="n">
-        <v>4309.838502320961</v>
+        <v>4309.83850232096</v>
       </c>
       <c r="T17" t="n">
-        <v>4097.766631394382</v>
+        <v>4097.766631394381</v>
       </c>
       <c r="U17" t="n">
-        <v>3844.124782911539</v>
+        <v>3844.124782911538</v>
       </c>
       <c r="V17" t="n">
-        <v>3571.023662879152</v>
+        <v>3844.124782911538</v>
       </c>
       <c r="W17" t="n">
-        <v>3218.255007609038</v>
+        <v>3587.21752454945</v>
       </c>
       <c r="X17" t="n">
-        <v>2844.789249347958</v>
+        <v>3213.75176628837</v>
       </c>
       <c r="Y17" t="n">
-        <v>2454.649917372146</v>
+        <v>2823.612434312558</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>358.2655451248219</v>
       </c>
       <c r="G18" t="n">
-        <v>221.1575806673371</v>
+        <v>221.157580667337</v>
       </c>
       <c r="H18" t="n">
         <v>123.4618653981578</v>
       </c>
       <c r="I18" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="J18" t="n">
         <v>238.5715376776723</v>
       </c>
       <c r="K18" t="n">
-        <v>620.7706302294098</v>
+        <v>620.7706302294096</v>
       </c>
       <c r="L18" t="n">
-        <v>1086.068521002306</v>
+        <v>1196.088872749591</v>
       </c>
       <c r="M18" t="n">
-        <v>1348.368982542756</v>
+        <v>1458.389334290041</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.020401716545</v>
+        <v>1742.04075346383</v>
       </c>
       <c r="O18" t="n">
-        <v>1869.286239259055</v>
+        <v>1979.30659100634</v>
       </c>
       <c r="P18" t="n">
         <v>2355.658066322916</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>578.4490472602874</v>
+        <v>825.6563225054028</v>
       </c>
       <c r="C19" t="n">
-        <v>578.4490472602874</v>
+        <v>825.6563225054028</v>
       </c>
       <c r="D19" t="n">
-        <v>520.3594768142993</v>
+        <v>675.5396830930671</v>
       </c>
       <c r="E19" t="n">
-        <v>520.3594768142993</v>
+        <v>527.626589510674</v>
       </c>
       <c r="F19" t="n">
-        <v>373.469529316389</v>
+        <v>380.7366420127636</v>
       </c>
       <c r="G19" t="n">
-        <v>205.1422234918988</v>
+        <v>240.8063400545935</v>
       </c>
       <c r="H19" t="n">
-        <v>205.1422234918988</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="I19" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="J19" t="n">
-        <v>90.88829890550549</v>
+        <v>90.88829890550545</v>
       </c>
       <c r="K19" t="n">
         <v>223.7672990342809</v>
       </c>
       <c r="L19" t="n">
-        <v>449.3331051635337</v>
+        <v>449.3331051635336</v>
       </c>
       <c r="M19" t="n">
-        <v>697.549744161596</v>
+        <v>697.5497441615958</v>
       </c>
       <c r="N19" t="n">
-        <v>945.2989626976047</v>
+        <v>945.2989626976043</v>
       </c>
       <c r="O19" t="n">
         <v>1158.119169874127</v>
       </c>
       <c r="P19" t="n">
-        <v>1316.70294071165</v>
+        <v>1316.702940711649</v>
       </c>
       <c r="Q19" t="n">
         <v>1343.063043440381</v>
@@ -5706,19 +5706,19 @@
         <v>1343.063043440381</v>
       </c>
       <c r="U19" t="n">
-        <v>1053.926114609704</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="V19" t="n">
-        <v>799.2416264038176</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="W19" t="n">
-        <v>799.2416264038176</v>
+        <v>1053.64587340342</v>
       </c>
       <c r="X19" t="n">
-        <v>799.2416264038176</v>
+        <v>825.6563225054028</v>
       </c>
       <c r="Y19" t="n">
-        <v>578.4490472602874</v>
+        <v>825.6563225054028</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2405.74437576924</v>
+        <v>2125.17166881854</v>
       </c>
       <c r="C20" t="n">
-        <v>2036.781858828828</v>
+        <v>1756.209151878128</v>
       </c>
       <c r="D20" t="n">
-        <v>1678.516160222078</v>
+        <v>1397.943453271378</v>
       </c>
       <c r="E20" t="n">
-        <v>1292.727907623834</v>
+        <v>1012.155200673134</v>
       </c>
       <c r="F20" t="n">
-        <v>881.742002834226</v>
+        <v>601.169295883526</v>
       </c>
       <c r="G20" t="n">
-        <v>465.2774057207299</v>
+        <v>184.7046987700299</v>
       </c>
       <c r="H20" t="n">
-        <v>153.4364802908341</v>
+        <v>184.7046987700299</v>
       </c>
       <c r="I20" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="J20" t="n">
         <v>329.5164204382982</v>
       </c>
       <c r="K20" t="n">
-        <v>810.677456544297</v>
+        <v>810.6774565442965</v>
       </c>
       <c r="L20" t="n">
-        <v>1459.876896545253</v>
+        <v>1459.876896545252</v>
       </c>
       <c r="M20" t="n">
-        <v>2198.842906359703</v>
+        <v>2198.842906359702</v>
       </c>
       <c r="N20" t="n">
-        <v>2935.134161232316</v>
+        <v>2935.134161232315</v>
       </c>
       <c r="O20" t="n">
-        <v>3585.20547661601</v>
+        <v>3585.205476616009</v>
       </c>
       <c r="P20" t="n">
-        <v>4102.351921457031</v>
+        <v>4102.35192145703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4413.485604678387</v>
+        <v>4413.485604678386</v>
       </c>
       <c r="R20" t="n">
-        <v>4451.852719610518</v>
+        <v>4451.852719610517</v>
       </c>
       <c r="S20" t="n">
-        <v>4451.852719610518</v>
+        <v>4309.83850232096</v>
       </c>
       <c r="T20" t="n">
-        <v>4239.780848683939</v>
+        <v>4097.766631394381</v>
       </c>
       <c r="U20" t="n">
-        <v>4239.780848683939</v>
+        <v>3844.124782911538</v>
       </c>
       <c r="V20" t="n">
-        <v>3908.717961340368</v>
+        <v>3628.145254389668</v>
       </c>
       <c r="W20" t="n">
-        <v>3555.949306070253</v>
+        <v>3275.376599119554</v>
       </c>
       <c r="X20" t="n">
-        <v>3182.483547809174</v>
+        <v>2901.910840858474</v>
       </c>
       <c r="Y20" t="n">
-        <v>2792.344215833362</v>
+        <v>2511.771508882662</v>
       </c>
     </row>
     <row r="21">
@@ -5822,28 +5822,28 @@
         <v>358.2655451248219</v>
       </c>
       <c r="G21" t="n">
-        <v>221.1575806673371</v>
+        <v>221.157580667337</v>
       </c>
       <c r="H21" t="n">
         <v>123.4618653981578</v>
       </c>
       <c r="I21" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="J21" t="n">
-        <v>128.5511859303873</v>
+        <v>113.7414126906675</v>
       </c>
       <c r="K21" t="n">
-        <v>510.7502784821247</v>
+        <v>487.9585242485872</v>
       </c>
       <c r="L21" t="n">
-        <v>1086.068521002306</v>
+        <v>696.1448249183443</v>
       </c>
       <c r="M21" t="n">
-        <v>1348.368982542756</v>
+        <v>958.4452864587936</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.020401716545</v>
+        <v>1242.096705632583</v>
       </c>
       <c r="O21" t="n">
         <v>1869.286239259055</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>205.1422234918988</v>
+        <v>991.1815848169251</v>
       </c>
       <c r="C22" t="n">
-        <v>205.1422234918988</v>
+        <v>822.2454018890182</v>
       </c>
       <c r="D22" t="n">
-        <v>205.1422234918988</v>
+        <v>672.1287624766825</v>
       </c>
       <c r="E22" t="n">
-        <v>205.1422234918988</v>
+        <v>672.1287624766825</v>
       </c>
       <c r="F22" t="n">
-        <v>205.1422234918988</v>
+        <v>525.2388149787721</v>
       </c>
       <c r="G22" t="n">
-        <v>205.1422234918988</v>
+        <v>356.911509154282</v>
       </c>
       <c r="H22" t="n">
         <v>205.1422234918988</v>
       </c>
       <c r="I22" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="J22" t="n">
-        <v>90.88829890550549</v>
+        <v>90.88829890550545</v>
       </c>
       <c r="K22" t="n">
         <v>223.7672990342809</v>
       </c>
       <c r="L22" t="n">
-        <v>449.3331051635337</v>
+        <v>449.3331051635336</v>
       </c>
       <c r="M22" t="n">
-        <v>697.549744161596</v>
+        <v>697.5497441615958</v>
       </c>
       <c r="N22" t="n">
-        <v>945.2989626976047</v>
+        <v>945.2989626976043</v>
       </c>
       <c r="O22" t="n">
         <v>1158.119169874127</v>
       </c>
       <c r="P22" t="n">
-        <v>1316.70294071165</v>
+        <v>1316.702940711649</v>
       </c>
       <c r="Q22" t="n">
         <v>1343.063043440381</v>
@@ -5940,22 +5940,22 @@
         <v>1343.063043440381</v>
       </c>
       <c r="T22" t="n">
-        <v>1118.628241431468</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="U22" t="n">
-        <v>829.4913126007916</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="V22" t="n">
-        <v>574.8068243949048</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="W22" t="n">
-        <v>285.3896543579442</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="X22" t="n">
-        <v>205.1422234918988</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="Y22" t="n">
-        <v>205.1422234918988</v>
+        <v>1172.830049647165</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2068.050077308024</v>
+        <v>2010.088309996839</v>
       </c>
       <c r="C23" t="n">
-        <v>2068.050077308024</v>
+        <v>1641.125793056428</v>
       </c>
       <c r="D23" t="n">
-        <v>1709.784378701274</v>
+        <v>1282.860094449677</v>
       </c>
       <c r="E23" t="n">
-        <v>1323.996126103029</v>
+        <v>897.071841851433</v>
       </c>
       <c r="F23" t="n">
-        <v>913.0102213134219</v>
+        <v>817.3425769356022</v>
       </c>
       <c r="G23" t="n">
-        <v>496.5456241999257</v>
+        <v>400.8779798221061</v>
       </c>
       <c r="H23" t="n">
-        <v>184.7046987700299</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="I23" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="J23" t="n">
-        <v>329.5164204382982</v>
+        <v>329.516420438298</v>
       </c>
       <c r="K23" t="n">
         <v>810.677456544297</v>
@@ -6004,37 +6004,37 @@
         <v>2935.134161232316</v>
       </c>
       <c r="O23" t="n">
-        <v>3585.20547661601</v>
+        <v>3585.205476616009</v>
       </c>
       <c r="P23" t="n">
         <v>4102.351921457031</v>
       </c>
       <c r="Q23" t="n">
-        <v>4413.485604678387</v>
+        <v>4413.485604678386</v>
       </c>
       <c r="R23" t="n">
-        <v>4451.852719610518</v>
+        <v>4451.852719610517</v>
       </c>
       <c r="S23" t="n">
-        <v>4367.800269632146</v>
+        <v>4309.83850232096</v>
       </c>
       <c r="T23" t="n">
-        <v>4155.728398705566</v>
+        <v>4097.766631394381</v>
       </c>
       <c r="U23" t="n">
-        <v>3902.086550222723</v>
+        <v>3844.124782911538</v>
       </c>
       <c r="V23" t="n">
-        <v>3571.023662879152</v>
+        <v>3513.061895567967</v>
       </c>
       <c r="W23" t="n">
-        <v>3218.255007609038</v>
+        <v>3160.293240297853</v>
       </c>
       <c r="X23" t="n">
-        <v>2844.789249347958</v>
+        <v>2786.827482036773</v>
       </c>
       <c r="Y23" t="n">
-        <v>2454.649917372146</v>
+        <v>2396.688150060961</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>358.2655451248219</v>
       </c>
       <c r="G24" t="n">
-        <v>221.1575806673371</v>
+        <v>221.157580667337</v>
       </c>
       <c r="H24" t="n">
         <v>123.4618653981578</v>
       </c>
       <c r="I24" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="J24" t="n">
         <v>238.5715376776723</v>
       </c>
       <c r="K24" t="n">
-        <v>620.7706302294098</v>
+        <v>620.7706302294097</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088872749591</v>
+        <v>1086.068521002306</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.389334290041</v>
+        <v>1348.368982542756</v>
       </c>
       <c r="N24" t="n">
-        <v>1742.04075346383</v>
+        <v>1632.020401716545</v>
       </c>
       <c r="O24" t="n">
-        <v>1979.306591006341</v>
+        <v>1869.286239259055</v>
       </c>
       <c r="P24" t="n">
-        <v>2465.678418070201</v>
+        <v>2355.658066322916</v>
       </c>
       <c r="Q24" t="n">
         <v>2628.086982923609</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.5964251929469</v>
+        <v>673.7607856645819</v>
       </c>
       <c r="C25" t="n">
-        <v>533.9567348848495</v>
+        <v>504.824602736675</v>
       </c>
       <c r="D25" t="n">
-        <v>383.8400954725138</v>
+        <v>504.824602736675</v>
       </c>
       <c r="E25" t="n">
-        <v>235.9270018901207</v>
+        <v>356.9115091542819</v>
       </c>
       <c r="F25" t="n">
-        <v>89.03705439221036</v>
+        <v>356.9115091542819</v>
       </c>
       <c r="G25" t="n">
-        <v>89.03705439221036</v>
+        <v>356.9115091542819</v>
       </c>
       <c r="H25" t="n">
-        <v>89.03705439221036</v>
+        <v>205.1422234918988</v>
       </c>
       <c r="I25" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="J25" t="n">
-        <v>90.88829890550549</v>
+        <v>90.88829890550547</v>
       </c>
       <c r="K25" t="n">
         <v>223.7672990342809</v>
@@ -6177,22 +6177,22 @@
         <v>1343.063043440381</v>
       </c>
       <c r="T25" t="n">
-        <v>1343.063043440381</v>
+        <v>1118.628241431468</v>
       </c>
       <c r="U25" t="n">
-        <v>1343.063043440381</v>
+        <v>1118.628241431468</v>
       </c>
       <c r="V25" t="n">
-        <v>1088.378555234494</v>
+        <v>863.9437532255816</v>
       </c>
       <c r="W25" t="n">
-        <v>1088.378555234494</v>
+        <v>863.9437532255816</v>
       </c>
       <c r="X25" t="n">
-        <v>860.389004336477</v>
+        <v>863.9437532255816</v>
       </c>
       <c r="Y25" t="n">
-        <v>639.5964251929469</v>
+        <v>855.4092504948217</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2010.088309996839</v>
+        <v>2051.224341650191</v>
       </c>
       <c r="C26" t="n">
-        <v>1641.125793056428</v>
+        <v>1682.26182470978</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.860094449677</v>
+        <v>1323.996126103029</v>
       </c>
       <c r="E26" t="n">
-        <v>897.071841851433</v>
+        <v>1323.996126103029</v>
       </c>
       <c r="F26" t="n">
-        <v>505.5016515057065</v>
+        <v>913.0102213134219</v>
       </c>
       <c r="G26" t="n">
-        <v>89.03705439221034</v>
+        <v>496.5456241999257</v>
       </c>
       <c r="H26" t="n">
-        <v>89.03705439221034</v>
+        <v>184.7046987700299</v>
       </c>
       <c r="I26" t="n">
-        <v>89.03705439221034</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="J26" t="n">
-        <v>329.516420438298</v>
+        <v>329.5164204382991</v>
       </c>
       <c r="K26" t="n">
-        <v>810.677456544297</v>
+        <v>810.6774565442984</v>
       </c>
       <c r="L26" t="n">
-        <v>1459.876896545253</v>
+        <v>1459.876896545254</v>
       </c>
       <c r="M26" t="n">
-        <v>2198.842906359703</v>
+        <v>2198.842906359704</v>
       </c>
       <c r="N26" t="n">
-        <v>2935.134161232316</v>
+        <v>2935.134161232317</v>
       </c>
       <c r="O26" t="n">
-        <v>3585.205476616009</v>
+        <v>3585.205476616011</v>
       </c>
       <c r="P26" t="n">
-        <v>4102.351921457031</v>
+        <v>4102.351921457032</v>
       </c>
       <c r="Q26" t="n">
-        <v>4413.485604678386</v>
+        <v>4413.485604678388</v>
       </c>
       <c r="R26" t="n">
-        <v>4451.852719610517</v>
+        <v>4451.852719610519</v>
       </c>
       <c r="S26" t="n">
-        <v>4309.83850232096</v>
+        <v>4350.974533974312</v>
       </c>
       <c r="T26" t="n">
-        <v>4097.766631394381</v>
+        <v>4138.902663047733</v>
       </c>
       <c r="U26" t="n">
-        <v>3844.124782911538</v>
+        <v>3885.26081456489</v>
       </c>
       <c r="V26" t="n">
-        <v>3513.061895567967</v>
+        <v>3554.197927221319</v>
       </c>
       <c r="W26" t="n">
-        <v>3160.293240297853</v>
+        <v>3201.429271951205</v>
       </c>
       <c r="X26" t="n">
-        <v>2786.827482036773</v>
+        <v>2827.963513690125</v>
       </c>
       <c r="Y26" t="n">
-        <v>2396.688150060961</v>
+        <v>2437.824181714313</v>
       </c>
     </row>
     <row r="27">
@@ -6296,28 +6296,28 @@
         <v>358.2655451248219</v>
       </c>
       <c r="G27" t="n">
-        <v>221.157580667337</v>
+        <v>221.1575806673371</v>
       </c>
       <c r="H27" t="n">
         <v>123.4618653981578</v>
       </c>
       <c r="I27" t="n">
-        <v>89.03705439221034</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="J27" t="n">
-        <v>128.5511859303873</v>
+        <v>238.5715376776723</v>
       </c>
       <c r="K27" t="n">
-        <v>510.7502784821247</v>
+        <v>620.7706302294098</v>
       </c>
       <c r="L27" t="n">
-        <v>1086.068521002306</v>
+        <v>828.9569308991669</v>
       </c>
       <c r="M27" t="n">
-        <v>1348.368982542756</v>
+        <v>1091.257392439616</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.020401716545</v>
+        <v>1374.908811613406</v>
       </c>
       <c r="O27" t="n">
         <v>1869.286239259055</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>704.5455640628038</v>
+        <v>387.6962875525039</v>
       </c>
       <c r="C28" t="n">
-        <v>535.6093811348969</v>
+        <v>387.6962875525039</v>
       </c>
       <c r="D28" t="n">
-        <v>535.6093811348969</v>
+        <v>387.6962875525039</v>
       </c>
       <c r="E28" t="n">
         <v>387.6962875525039</v>
@@ -6378,16 +6378,16 @@
         <v>240.8063400545935</v>
       </c>
       <c r="H28" t="n">
-        <v>89.03705439221034</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="I28" t="n">
-        <v>89.03705439221034</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="J28" t="n">
-        <v>90.88829890550547</v>
+        <v>90.88829890550551</v>
       </c>
       <c r="K28" t="n">
-        <v>223.7672990342809</v>
+        <v>223.767299034281</v>
       </c>
       <c r="L28" t="n">
         <v>449.3331051635337</v>
@@ -6411,25 +6411,25 @@
         <v>1343.063043440381</v>
       </c>
       <c r="S28" t="n">
-        <v>1343.063043440381</v>
+        <v>1140.494364222809</v>
       </c>
       <c r="T28" t="n">
-        <v>1343.063043440381</v>
+        <v>916.0595622138962</v>
       </c>
       <c r="U28" t="n">
-        <v>1248.647222305651</v>
+        <v>626.9226333832194</v>
       </c>
       <c r="V28" t="n">
-        <v>993.9627340997645</v>
+        <v>626.9226333832194</v>
       </c>
       <c r="W28" t="n">
-        <v>704.5455640628038</v>
+        <v>626.9226333832194</v>
       </c>
       <c r="X28" t="n">
-        <v>704.5455640628038</v>
+        <v>569.3447523827436</v>
       </c>
       <c r="Y28" t="n">
-        <v>704.5455640628038</v>
+        <v>569.3447523827436</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2010.08830999684</v>
+        <v>2437.012594248436</v>
       </c>
       <c r="C29" t="n">
-        <v>1641.125793056429</v>
+        <v>2068.050077308024</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.860094449678</v>
+        <v>1709.784378701274</v>
       </c>
       <c r="E29" t="n">
-        <v>897.0718418514339</v>
+        <v>1323.996126103029</v>
       </c>
       <c r="F29" t="n">
-        <v>817.3425769356022</v>
+        <v>913.0102213134219</v>
       </c>
       <c r="G29" t="n">
-        <v>400.8779798221061</v>
+        <v>496.5456241999257</v>
       </c>
       <c r="H29" t="n">
-        <v>89.03705439221036</v>
+        <v>184.7046987700299</v>
       </c>
       <c r="I29" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="J29" t="n">
         <v>329.5164204382979</v>
@@ -6475,40 +6475,40 @@
         <v>2198.842906359703</v>
       </c>
       <c r="N29" t="n">
-        <v>2935.134161232317</v>
+        <v>2935.134161232316</v>
       </c>
       <c r="O29" t="n">
-        <v>3585.205476616011</v>
+        <v>3585.20547661601</v>
       </c>
       <c r="P29" t="n">
         <v>4102.351921457031</v>
       </c>
       <c r="Q29" t="n">
-        <v>4413.485604678387</v>
+        <v>4413.485604678386</v>
       </c>
       <c r="R29" t="n">
-        <v>4451.852719610518</v>
+        <v>4451.852719610519</v>
       </c>
       <c r="S29" t="n">
-        <v>4309.838502320961</v>
+        <v>4383.994131302443</v>
       </c>
       <c r="T29" t="n">
-        <v>4097.766631394382</v>
+        <v>4171.922260375864</v>
       </c>
       <c r="U29" t="n">
-        <v>3844.124782911539</v>
+        <v>3918.28041189302</v>
       </c>
       <c r="V29" t="n">
-        <v>3513.061895567968</v>
+        <v>3587.21752454945</v>
       </c>
       <c r="W29" t="n">
-        <v>3160.293240297854</v>
+        <v>3587.21752454945</v>
       </c>
       <c r="X29" t="n">
-        <v>2786.827482036774</v>
+        <v>3213.75176628837</v>
       </c>
       <c r="Y29" t="n">
-        <v>2396.688150060962</v>
+        <v>2823.612434312558</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>123.4618653981578</v>
       </c>
       <c r="I30" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="J30" t="n">
-        <v>128.5511859303873</v>
+        <v>113.7414126906676</v>
       </c>
       <c r="K30" t="n">
-        <v>510.7502784821247</v>
+        <v>495.940505242405</v>
       </c>
       <c r="L30" t="n">
-        <v>1086.068521002306</v>
+        <v>1071.258747762587</v>
       </c>
       <c r="M30" t="n">
-        <v>1348.368982542756</v>
+        <v>1333.559209303036</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.020401716545</v>
+        <v>1617.210628476826</v>
       </c>
       <c r="O30" t="n">
         <v>1869.286239259055</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.8929178127564</v>
+        <v>509.0137701472176</v>
       </c>
       <c r="C31" t="n">
-        <v>533.9567348848495</v>
+        <v>509.0137701472176</v>
       </c>
       <c r="D31" t="n">
-        <v>383.8400954725138</v>
+        <v>509.0137701472176</v>
       </c>
       <c r="E31" t="n">
-        <v>235.9270018901207</v>
+        <v>361.1006765648245</v>
       </c>
       <c r="F31" t="n">
-        <v>89.03705439221036</v>
+        <v>214.2107290669141</v>
       </c>
       <c r="G31" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="H31" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="I31" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="J31" t="n">
-        <v>90.88829890550549</v>
+        <v>90.88829890550551</v>
       </c>
       <c r="K31" t="n">
-        <v>223.7672990342809</v>
+        <v>223.767299034281</v>
       </c>
       <c r="L31" t="n">
         <v>449.3331051635337</v>
@@ -6645,28 +6645,28 @@
         <v>1343.063043440381</v>
       </c>
       <c r="R31" t="n">
-        <v>1343.063043440381</v>
+        <v>1225.15418020438</v>
       </c>
       <c r="S31" t="n">
-        <v>1333.323512684544</v>
+        <v>1022.585500986807</v>
       </c>
       <c r="T31" t="n">
-        <v>1333.323512684544</v>
+        <v>798.1506989778945</v>
       </c>
       <c r="U31" t="n">
-        <v>1333.323512684544</v>
+        <v>509.0137701472176</v>
       </c>
       <c r="V31" t="n">
-        <v>1333.323512684544</v>
+        <v>509.0137701472176</v>
       </c>
       <c r="W31" t="n">
-        <v>1333.323512684544</v>
+        <v>509.0137701472176</v>
       </c>
       <c r="X31" t="n">
-        <v>1105.333961786526</v>
+        <v>509.0137701472176</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.5413826429962</v>
+        <v>509.0137701472176</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2152.102527286397</v>
+        <v>2437.012594248436</v>
       </c>
       <c r="C32" t="n">
-        <v>1783.140010345985</v>
+        <v>2068.050077308024</v>
       </c>
       <c r="D32" t="n">
-        <v>1424.874311739235</v>
+        <v>1709.784378701274</v>
       </c>
       <c r="E32" t="n">
-        <v>1039.08605914099</v>
+        <v>1323.996126103029</v>
       </c>
       <c r="F32" t="n">
-        <v>817.3425769356022</v>
+        <v>913.0102213134219</v>
       </c>
       <c r="G32" t="n">
-        <v>400.8779798221061</v>
+        <v>496.5456241999257</v>
       </c>
       <c r="H32" t="n">
-        <v>89.03705439221036</v>
+        <v>184.7046987700299</v>
       </c>
       <c r="I32" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="J32" t="n">
-        <v>329.5164204382982</v>
+        <v>329.5164204382991</v>
       </c>
       <c r="K32" t="n">
-        <v>810.677456544297</v>
+        <v>810.6774565442979</v>
       </c>
       <c r="L32" t="n">
-        <v>1459.876896545253</v>
+        <v>1459.876896545254</v>
       </c>
       <c r="M32" t="n">
-        <v>2198.842906359703</v>
+        <v>2198.842906359704</v>
       </c>
       <c r="N32" t="n">
-        <v>2935.134161232316</v>
+        <v>2935.134161232317</v>
       </c>
       <c r="O32" t="n">
-        <v>3585.20547661601</v>
+        <v>3585.205476616011</v>
       </c>
       <c r="P32" t="n">
         <v>4102.351921457031</v>
       </c>
       <c r="Q32" t="n">
-        <v>4413.485604678387</v>
+        <v>4413.485604678388</v>
       </c>
       <c r="R32" t="n">
-        <v>4451.852719610518</v>
+        <v>4451.852719610519</v>
       </c>
       <c r="S32" t="n">
-        <v>4451.852719610518</v>
+        <v>4451.852719610519</v>
       </c>
       <c r="T32" t="n">
         <v>4239.780848683939</v>
       </c>
       <c r="U32" t="n">
-        <v>3986.139000201095</v>
+        <v>3986.139000201096</v>
       </c>
       <c r="V32" t="n">
-        <v>3655.076112857525</v>
+        <v>3939.986179819564</v>
       </c>
       <c r="W32" t="n">
-        <v>3302.30745758741</v>
+        <v>3587.21752454945</v>
       </c>
       <c r="X32" t="n">
-        <v>2928.84169932633</v>
+        <v>3213.75176628837</v>
       </c>
       <c r="Y32" t="n">
-        <v>2538.702367350519</v>
+        <v>2823.612434312558</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>123.4618653981578</v>
       </c>
       <c r="I33" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="J33" t="n">
-        <v>113.7414126906676</v>
+        <v>238.5715376776723</v>
       </c>
       <c r="K33" t="n">
-        <v>495.940505242405</v>
+        <v>620.7706302294098</v>
       </c>
       <c r="L33" t="n">
-        <v>1071.258747762587</v>
+        <v>1086.068521002306</v>
       </c>
       <c r="M33" t="n">
-        <v>1333.559209303036</v>
+        <v>1348.368982542756</v>
       </c>
       <c r="N33" t="n">
-        <v>1617.210628476826</v>
+        <v>1632.020401716545</v>
       </c>
       <c r="O33" t="n">
         <v>1869.286239259055</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.03705439221036</v>
+        <v>543.7163654292136</v>
       </c>
       <c r="C34" t="n">
-        <v>89.03705439221036</v>
+        <v>374.7801825013067</v>
       </c>
       <c r="D34" t="n">
-        <v>89.03705439221036</v>
+        <v>374.7801825013067</v>
       </c>
       <c r="E34" t="n">
-        <v>89.03705439221036</v>
+        <v>374.7801825013067</v>
       </c>
       <c r="F34" t="n">
-        <v>89.03705439221036</v>
+        <v>227.8902350033964</v>
       </c>
       <c r="G34" t="n">
-        <v>89.03705439221036</v>
+        <v>205.1422234918988</v>
       </c>
       <c r="H34" t="n">
-        <v>89.03705439221036</v>
+        <v>205.1422234918988</v>
       </c>
       <c r="I34" t="n">
-        <v>89.03705439221036</v>
+        <v>89.03705439221038</v>
       </c>
       <c r="J34" t="n">
-        <v>90.88829890550549</v>
+        <v>90.88829890550551</v>
       </c>
       <c r="K34" t="n">
-        <v>223.7672990342809</v>
+        <v>223.767299034281</v>
       </c>
       <c r="L34" t="n">
         <v>449.3331051635337</v>
@@ -6888,22 +6888,22 @@
         <v>1343.063043440381</v>
       </c>
       <c r="T34" t="n">
-        <v>1118.628241431468</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="U34" t="n">
-        <v>829.4913126007916</v>
+        <v>1053.926114609704</v>
       </c>
       <c r="V34" t="n">
-        <v>788.092240157428</v>
+        <v>1053.926114609704</v>
       </c>
       <c r="W34" t="n">
-        <v>498.6750701204674</v>
+        <v>764.5089445727438</v>
       </c>
       <c r="X34" t="n">
-        <v>270.6855192224501</v>
+        <v>764.5089445727438</v>
       </c>
       <c r="Y34" t="n">
-        <v>270.6855192224501</v>
+        <v>543.7163654292136</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2010.088309996839</v>
+        <v>2341.344949870616</v>
       </c>
       <c r="C35" t="n">
-        <v>1641.125793056428</v>
+        <v>1972.382432930204</v>
       </c>
       <c r="D35" t="n">
-        <v>1282.860094449677</v>
+        <v>1614.116734323454</v>
       </c>
       <c r="E35" t="n">
-        <v>897.071841851433</v>
+        <v>1228.32848172521</v>
       </c>
       <c r="F35" t="n">
-        <v>496.5456241999257</v>
+        <v>817.3425769356022</v>
       </c>
       <c r="G35" t="n">
-        <v>496.5456241999257</v>
+        <v>400.8779798221061</v>
       </c>
       <c r="H35" t="n">
-        <v>184.7046987700299</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="I35" t="n">
         <v>89.03705439221034</v>
@@ -6952,37 +6952,37 @@
         <v>2935.134161232315</v>
       </c>
       <c r="O35" t="n">
-        <v>3585.20547661601</v>
+        <v>3585.205476616009</v>
       </c>
       <c r="P35" t="n">
-        <v>4102.351921457031</v>
+        <v>4102.35192145703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4413.485604678386</v>
+        <v>4413.485604678385</v>
       </c>
       <c r="R35" t="n">
         <v>4451.852719610517</v>
       </c>
       <c r="S35" t="n">
-        <v>4309.83850232096</v>
+        <v>4451.852719610517</v>
       </c>
       <c r="T35" t="n">
-        <v>4097.766631394381</v>
+        <v>4429.023271268157</v>
       </c>
       <c r="U35" t="n">
-        <v>3844.124782911538</v>
+        <v>4175.381422785314</v>
       </c>
       <c r="V35" t="n">
-        <v>3513.061895567967</v>
+        <v>3844.318535441744</v>
       </c>
       <c r="W35" t="n">
-        <v>3160.293240297853</v>
+        <v>3491.54988017163</v>
       </c>
       <c r="X35" t="n">
-        <v>2786.827482036773</v>
+        <v>3118.08412191055</v>
       </c>
       <c r="Y35" t="n">
-        <v>2396.688150060961</v>
+        <v>2727.944789934738</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>113.7414126906675</v>
       </c>
       <c r="K36" t="n">
-        <v>495.9405052424049</v>
+        <v>234.1199205999521</v>
       </c>
       <c r="L36" t="n">
-        <v>1071.258747762586</v>
+        <v>442.3062212697091</v>
       </c>
       <c r="M36" t="n">
-        <v>1348.368982542756</v>
+        <v>1165.654695922658</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.020401716545</v>
+        <v>1923.855065696566</v>
       </c>
       <c r="O36" t="n">
-        <v>1869.286239259055</v>
+        <v>2392.540895071084</v>
       </c>
       <c r="P36" t="n">
-        <v>2355.658066322916</v>
+        <v>2563.634581181407</v>
       </c>
       <c r="Q36" t="n">
         <v>2628.086982923609</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.03705439221034</v>
+        <v>507.0281485666177</v>
       </c>
       <c r="C37" t="n">
-        <v>89.03705439221034</v>
+        <v>507.0281485666177</v>
       </c>
       <c r="D37" t="n">
-        <v>89.03705439221034</v>
+        <v>356.911509154282</v>
       </c>
       <c r="E37" t="n">
-        <v>89.03705439221034</v>
+        <v>356.911509154282</v>
       </c>
       <c r="F37" t="n">
-        <v>89.03705439221034</v>
+        <v>356.911509154282</v>
       </c>
       <c r="G37" t="n">
-        <v>89.03705439221034</v>
+        <v>356.911509154282</v>
       </c>
       <c r="H37" t="n">
-        <v>89.03705439221034</v>
+        <v>205.1422234918988</v>
       </c>
       <c r="I37" t="n">
         <v>89.03705439221034</v>
@@ -7128,19 +7128,19 @@
         <v>1118.628241431468</v>
       </c>
       <c r="U37" t="n">
-        <v>829.4913126007912</v>
+        <v>1118.628241431468</v>
       </c>
       <c r="V37" t="n">
-        <v>574.8068243949043</v>
+        <v>1118.628241431468</v>
       </c>
       <c r="W37" t="n">
-        <v>285.3896543579437</v>
+        <v>829.2110713945074</v>
       </c>
       <c r="X37" t="n">
-        <v>89.03705439221034</v>
+        <v>601.22152049649</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.03705439221034</v>
+        <v>601.22152049649</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2437.012594248436</v>
+        <v>2010.088309996839</v>
       </c>
       <c r="C38" t="n">
-        <v>2068.050077308024</v>
+        <v>1641.125793056428</v>
       </c>
       <c r="D38" t="n">
-        <v>1709.784378701274</v>
+        <v>1282.860094449677</v>
       </c>
       <c r="E38" t="n">
-        <v>1323.996126103029</v>
+        <v>897.071841851433</v>
       </c>
       <c r="F38" t="n">
-        <v>913.0102213134219</v>
+        <v>486.0859370618254</v>
       </c>
       <c r="G38" t="n">
-        <v>496.5456241999257</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="H38" t="n">
-        <v>184.7046987700299</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="I38" t="n">
         <v>89.03705439221034</v>
@@ -7180,46 +7180,46 @@
         <v>810.6774565442968</v>
       </c>
       <c r="L38" t="n">
-        <v>1459.876896545252</v>
+        <v>1459.876896545253</v>
       </c>
       <c r="M38" t="n">
-        <v>2198.842906359702</v>
+        <v>2198.842906359704</v>
       </c>
       <c r="N38" t="n">
-        <v>2935.134161232315</v>
+        <v>2935.134161232316</v>
       </c>
       <c r="O38" t="n">
-        <v>3585.205476616009</v>
+        <v>3585.20547661601</v>
       </c>
       <c r="P38" t="n">
-        <v>4102.35192145703</v>
+        <v>4102.351921457031</v>
       </c>
       <c r="Q38" t="n">
-        <v>4413.485604678385</v>
+        <v>4413.485604678386</v>
       </c>
       <c r="R38" t="n">
         <v>4451.852719610517</v>
       </c>
       <c r="S38" t="n">
-        <v>4451.852719610517</v>
+        <v>4309.83850232096</v>
       </c>
       <c r="T38" t="n">
-        <v>4239.780848683938</v>
+        <v>4097.766631394381</v>
       </c>
       <c r="U38" t="n">
-        <v>3986.139000201094</v>
+        <v>3844.124782911538</v>
       </c>
       <c r="V38" t="n">
-        <v>3655.076112857524</v>
+        <v>3513.061895567967</v>
       </c>
       <c r="W38" t="n">
-        <v>3587.21752454945</v>
+        <v>3160.293240297853</v>
       </c>
       <c r="X38" t="n">
-        <v>3213.75176628837</v>
+        <v>2786.827482036773</v>
       </c>
       <c r="Y38" t="n">
-        <v>2823.612434312558</v>
+        <v>2396.688150060961</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>89.03705439221034</v>
       </c>
       <c r="J39" t="n">
-        <v>113.7414126906675</v>
+        <v>238.5715376776723</v>
       </c>
       <c r="K39" t="n">
-        <v>495.9405052424049</v>
+        <v>358.9500455869568</v>
       </c>
       <c r="L39" t="n">
-        <v>1071.258747762586</v>
+        <v>567.1363462567139</v>
       </c>
       <c r="M39" t="n">
-        <v>1348.368982542756</v>
+        <v>1290.484820909663</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.020401716545</v>
+        <v>2048.685190683571</v>
       </c>
       <c r="O39" t="n">
-        <v>1869.286239259055</v>
+        <v>2285.951028226081</v>
       </c>
       <c r="P39" t="n">
-        <v>2355.658066322916</v>
+        <v>2457.044714336404</v>
       </c>
       <c r="Q39" t="n">
         <v>2628.086982923609</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>577.3581198343639</v>
+        <v>678.7405395062368</v>
       </c>
       <c r="C40" t="n">
-        <v>577.3581198343639</v>
+        <v>509.8043565783299</v>
       </c>
       <c r="D40" t="n">
-        <v>577.3581198343639</v>
+        <v>383.8400954725138</v>
       </c>
       <c r="E40" t="n">
-        <v>429.4450262519708</v>
+        <v>235.9270018901207</v>
       </c>
       <c r="F40" t="n">
-        <v>282.5550787540604</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="G40" t="n">
-        <v>114.2277729295703</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="H40" t="n">
-        <v>114.2277729295703</v>
+        <v>89.03705439221034</v>
       </c>
       <c r="I40" t="n">
         <v>89.03705439221034</v>
@@ -7356,28 +7356,28 @@
         <v>1343.063043440381</v>
       </c>
       <c r="R40" t="n">
-        <v>1225.154180204379</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="S40" t="n">
-        <v>1022.585500986807</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="T40" t="n">
-        <v>798.1506989778941</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="U40" t="n">
-        <v>798.1506989778941</v>
+        <v>1343.063043440381</v>
       </c>
       <c r="V40" t="n">
-        <v>798.1506989778941</v>
+        <v>1088.378555234494</v>
       </c>
       <c r="W40" t="n">
-        <v>798.1506989778941</v>
+        <v>1088.378555234494</v>
       </c>
       <c r="X40" t="n">
-        <v>798.1506989778941</v>
+        <v>860.3890043364765</v>
       </c>
       <c r="Y40" t="n">
-        <v>577.3581198343639</v>
+        <v>860.3890043364765</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1576.703292474627</v>
+        <v>1519.581700964111</v>
       </c>
       <c r="C41" t="n">
-        <v>1207.740775534215</v>
+        <v>1519.581700964111</v>
       </c>
       <c r="D41" t="n">
-        <v>849.4750769274647</v>
+        <v>1161.316002357361</v>
       </c>
       <c r="E41" t="n">
-        <v>463.6868243292204</v>
+        <v>775.5277497591162</v>
       </c>
       <c r="F41" t="n">
-        <v>52.70091953961284</v>
+        <v>364.5418449695086</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961284</v>
+        <v>364.5418449695086</v>
       </c>
       <c r="H41" t="n">
-        <v>52.70091953961284</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70091953961284</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J41" t="n">
-        <v>125.7746365653474</v>
+        <v>293.1802855857004</v>
       </c>
       <c r="K41" t="n">
-        <v>286.0317142258932</v>
+        <v>774.3413216916992</v>
       </c>
       <c r="L41" t="n">
-        <v>935.2311542268487</v>
+        <v>1010.056159287709</v>
       </c>
       <c r="M41" t="n">
-        <v>1587.405033529558</v>
+        <v>1304.003770944255</v>
       </c>
       <c r="N41" t="n">
-        <v>2062.459274827763</v>
+        <v>1607.321570649003</v>
       </c>
       <c r="O41" t="n">
-        <v>2335.538410761339</v>
+        <v>1880.400706582579</v>
       </c>
       <c r="P41" t="n">
-        <v>2534.104134512592</v>
+        <v>2397.5471514236</v>
       </c>
       <c r="Q41" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R41" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S41" t="n">
-        <v>2493.031759691086</v>
+        <v>2516.13153669288</v>
       </c>
       <c r="T41" t="n">
-        <v>2493.031759691086</v>
+        <v>2516.13153669288</v>
       </c>
       <c r="U41" t="n">
-        <v>2493.031759691086</v>
+        <v>2262.489688210037</v>
       </c>
       <c r="V41" t="n">
-        <v>2493.031759691086</v>
+        <v>2262.489688210037</v>
       </c>
       <c r="W41" t="n">
-        <v>2336.768890799829</v>
+        <v>1909.721032939923</v>
       </c>
       <c r="X41" t="n">
-        <v>1963.303132538749</v>
+        <v>1909.721032939923</v>
       </c>
       <c r="Y41" t="n">
-        <v>1963.303132538749</v>
+        <v>1519.581700964111</v>
       </c>
     </row>
     <row r="42">
@@ -7478,16 +7478,16 @@
         <v>468.4639682453394</v>
       </c>
       <c r="F42" t="n">
-        <v>321.9294102722243</v>
+        <v>321.9294102722244</v>
       </c>
       <c r="G42" t="n">
-        <v>184.8214458147395</v>
+        <v>184.8214458147396</v>
       </c>
       <c r="H42" t="n">
-        <v>87.12573054556029</v>
+        <v>87.12573054556032</v>
       </c>
       <c r="I42" t="n">
-        <v>52.70091953961284</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J42" t="n">
         <v>92.21505107778972</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>817.7171915191254</v>
+        <v>964.3832433428693</v>
       </c>
       <c r="C43" t="n">
         <v>817.7171915191254</v>
@@ -7560,16 +7560,16 @@
         <v>372.7975110264862</v>
       </c>
       <c r="G43" t="n">
-        <v>204.470205201996</v>
+        <v>204.4702052019961</v>
       </c>
       <c r="H43" t="n">
-        <v>52.70091953961284</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I43" t="n">
-        <v>52.70091953961284</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J43" t="n">
-        <v>54.55216405290795</v>
+        <v>54.55216405290798</v>
       </c>
       <c r="K43" t="n">
         <v>187.4311641816834</v>
@@ -7578,7 +7578,7 @@
         <v>412.9969703109361</v>
       </c>
       <c r="M43" t="n">
-        <v>661.2136093089983</v>
+        <v>661.2136093089985</v>
       </c>
       <c r="N43" t="n">
         <v>908.962827845007</v>
@@ -7593,28 +7593,28 @@
         <v>1306.726908587784</v>
       </c>
       <c r="R43" t="n">
-        <v>1306.726908587784</v>
+        <v>1188.818045351782</v>
       </c>
       <c r="S43" t="n">
-        <v>1306.726908587784</v>
+        <v>1188.818045351782</v>
       </c>
       <c r="T43" t="n">
-        <v>1082.292106578871</v>
+        <v>964.3832433428693</v>
       </c>
       <c r="U43" t="n">
-        <v>1082.292106578871</v>
+        <v>964.3832433428693</v>
       </c>
       <c r="V43" t="n">
-        <v>827.6076183729839</v>
+        <v>964.3832433428693</v>
       </c>
       <c r="W43" t="n">
-        <v>827.6076183729839</v>
+        <v>964.3832433428693</v>
       </c>
       <c r="X43" t="n">
-        <v>827.6076183729839</v>
+        <v>964.3832433428693</v>
       </c>
       <c r="Y43" t="n">
-        <v>827.6076183729839</v>
+        <v>964.3832433428693</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1634.902190981373</v>
+        <v>928.3169856474517</v>
       </c>
       <c r="C44" t="n">
-        <v>1265.939674040961</v>
+        <v>559.35446870704</v>
       </c>
       <c r="D44" t="n">
-        <v>1265.939674040961</v>
+        <v>559.35446870704</v>
       </c>
       <c r="E44" t="n">
-        <v>880.1514214427166</v>
+        <v>559.35446870704</v>
       </c>
       <c r="F44" t="n">
-        <v>469.165516653109</v>
+        <v>148.3685639174324</v>
       </c>
       <c r="G44" t="n">
-        <v>52.70091953961284</v>
+        <v>148.3685639174324</v>
       </c>
       <c r="H44" t="n">
-        <v>52.70091953961284</v>
+        <v>148.3685639174324</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961284</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
-        <v>125.7746365653474</v>
+        <v>293.1802855857004</v>
       </c>
       <c r="K44" t="n">
-        <v>606.9356726713463</v>
+        <v>522.3966786263358</v>
       </c>
       <c r="L44" t="n">
-        <v>1146.6131423767</v>
+        <v>758.1115162223455</v>
       </c>
       <c r="M44" t="n">
-        <v>1440.560754033246</v>
+        <v>1410.285395525055</v>
       </c>
       <c r="N44" t="n">
-        <v>1743.878553737995</v>
+        <v>2062.459274827764</v>
       </c>
       <c r="O44" t="n">
-        <v>2016.957689671571</v>
+        <v>2335.53841076134</v>
       </c>
       <c r="P44" t="n">
-        <v>2534.104134512592</v>
+        <v>2534.104134512593</v>
       </c>
       <c r="Q44" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R44" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2493.031759691086</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T44" t="n">
-        <v>2493.031759691086</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U44" t="n">
-        <v>2398.507281218264</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V44" t="n">
-        <v>2398.507281218264</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W44" t="n">
-        <v>2398.507281218264</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X44" t="n">
-        <v>2025.041522957184</v>
+        <v>1705.056157687385</v>
       </c>
       <c r="Y44" t="n">
-        <v>1634.902190981373</v>
+        <v>1314.916825711573</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>468.4639682453394</v>
       </c>
       <c r="F45" t="n">
-        <v>321.9294102722243</v>
+        <v>321.9294102722244</v>
       </c>
       <c r="G45" t="n">
-        <v>184.8214458147395</v>
+        <v>184.8214458147396</v>
       </c>
       <c r="H45" t="n">
-        <v>87.12573054556029</v>
+        <v>87.12573054556032</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961284</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
         <v>202.2354028250748</v>
       </c>
       <c r="K45" t="n">
-        <v>584.4344953768122</v>
+        <v>322.6139107343594</v>
       </c>
       <c r="L45" t="n">
-        <v>792.6207960465692</v>
+        <v>530.8002114041165</v>
       </c>
       <c r="M45" t="n">
-        <v>1444.794675349278</v>
+        <v>1182.974090706826</v>
       </c>
       <c r="N45" t="n">
-        <v>1728.446094523068</v>
+        <v>1521.038711733523</v>
       </c>
       <c r="O45" t="n">
-        <v>1965.711932065578</v>
+        <v>2148.228245359996</v>
       </c>
       <c r="P45" t="n">
         <v>2319.321931470318</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.172809720146</v>
+        <v>686.9709952022559</v>
       </c>
       <c r="C46" t="n">
-        <v>559.2366267922391</v>
+        <v>518.0348122743491</v>
       </c>
       <c r="D46" t="n">
-        <v>559.2366267922391</v>
+        <v>367.9181728620134</v>
       </c>
       <c r="E46" t="n">
-        <v>411.323533209846</v>
+        <v>367.9181728620134</v>
       </c>
       <c r="F46" t="n">
-        <v>264.4335857119356</v>
+        <v>221.028225364103</v>
       </c>
       <c r="G46" t="n">
-        <v>96.10627988744548</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H46" t="n">
-        <v>52.70091953961284</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I46" t="n">
-        <v>52.70091953961284</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>54.55216405290795</v>
+        <v>54.55216405290798</v>
       </c>
       <c r="K46" t="n">
         <v>187.4311641816834</v>
@@ -7815,7 +7815,7 @@
         <v>412.9969703109361</v>
       </c>
       <c r="M46" t="n">
-        <v>661.2136093089983</v>
+        <v>661.2136093089985</v>
       </c>
       <c r="N46" t="n">
         <v>908.962827845007</v>
@@ -7836,22 +7836,22 @@
         <v>1306.726908587784</v>
       </c>
       <c r="T46" t="n">
-        <v>1306.726908587784</v>
+        <v>1082.292106578871</v>
       </c>
       <c r="U46" t="n">
-        <v>1017.589979757107</v>
+        <v>793.1551777481939</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.589979757107</v>
+        <v>686.9709952022559</v>
       </c>
       <c r="W46" t="n">
-        <v>728.172809720146</v>
+        <v>686.9709952022559</v>
       </c>
       <c r="X46" t="n">
-        <v>728.172809720146</v>
+        <v>686.9709952022559</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.172809720146</v>
+        <v>686.9709952022559</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8300,10 +8300,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8780,10 +8780,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>458.0981188384287</v>
+        <v>176.8008973295441</v>
       </c>
       <c r="O12" t="n">
-        <v>112.565097767845</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>391.2261292428727</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>458.0981188384287</v>
+        <v>176.8008973295441</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>37.16554713105188</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>259.7086768718581</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>207.3311002083363</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>14.95936690880781</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>256.4026299481163</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>259.7086768718582</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>98.945619304248</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>14.95936690880784</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>259.7086768718582</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10123,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119853</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298429</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>14.95936690880781</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>14.95936690880791</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>259.7086768718581</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>14.95936690880791</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298341</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>14.95936690880819</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>233.7575675070789</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298341</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>14.95936690880819</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>107.6665321666698</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>361.8447147941039</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>173.4711531247038</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.9363465545381</v>
       </c>
       <c r="R41" t="n">
         <v>26.96175832537563</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>14.95936690880778</v>
+        <v>14.95936690880776</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>69.65587412130256</v>
       </c>
       <c r="L44" t="n">
-        <v>307.0329617266104</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>361.8447147941041</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>352.3798783817786</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>393.8115330931916</v>
+        <v>393.8115330931918</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>54.9628301544526</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>184.3599124186036</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>82.28799966525469</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>118.4960408938903</v>
@@ -23311,16 +23311,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>131.8423038790075</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>93.29251818617603</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.8409723432651</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>54.02177533712995</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
@@ -23554,10 +23554,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>133.1455626087065</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>96.48721104172736</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>33.03055489065173</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>123.266557879417</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>57.38214963807235</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>94.90278293894571</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>91.10679827668415</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>28.11303382765689</v>
       </c>
       <c r="H19" t="n">
-        <v>150.2515928057593</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>114.9441174086916</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>222.1904539888237</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2455595423701</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>308.7225161755968</v>
       </c>
       <c r="I20" t="n">
-        <v>30.95553629440386</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>140.5940751166608</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1054299980146</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>113.9325252334839</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.6440327662452</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>150.2515928057593</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>200.5429924253966</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.1904539888237</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2455595423701</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>146.2646988316523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>50.05398949681086</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>327.944073475039</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>94.71096793404134</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.38214963807218</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.66352769361148</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.6440327662452</v>
       </c>
       <c r="H25" t="n">
-        <v>150.2515928057593</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>114.9441174086916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>200.5429924253966</v>
       </c>
       <c r="T25" t="n">
-        <v>222.1904539888237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2455595423701</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>210.1354956486424</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>19.22155729944222</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>308.7225161755968</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>94.71096793404134</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.7246713368163</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>116.7297746036414</v>
       </c>
       <c r="S28" t="n">
-        <v>200.5429924253966</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.1904539888237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>192.7738966189876</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.7075531985662</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>327.9440734750381</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>94.71096793404134</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>73.41407269166564</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.6440327662452</v>
+        <v>42.72209483828853</v>
       </c>
       <c r="H31" t="n">
         <v>150.2515928057593</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>116.7297746036414</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.9008569771173</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>222.1904539888237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2455595423701</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>187.3499983583772</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>94.71096793404134</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>282.0609662924178</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.6440327662452</v>
+        <v>144.1235013698627</v>
       </c>
       <c r="H34" t="n">
         <v>150.2515928057593</v>
       </c>
       <c r="I34" t="n">
-        <v>114.9441174086916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>200.5429924253966</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>222.1904539888237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>211.152561604898</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>10.35509026671923</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>412.2999511423612</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>94.71096793404135</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>140.5940751166608</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>187.3499983583777</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>86.58054197136369</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>166.6440327662452</v>
       </c>
       <c r="H37" t="n">
-        <v>150.2515928057593</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>114.9441174086916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2455595423701</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>31.32058142296114</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>19.22155729944228</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>308.7225161755968</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>94.71096793404135</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>140.5940751166608</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>282.0609662924197</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>23.91085452345438</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.6440327662452</v>
       </c>
       <c r="H40" t="n">
         <v>150.2515928057593</v>
       </c>
       <c r="I40" t="n">
-        <v>90.00530605670519</v>
+        <v>114.9441174086916</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>116.7297746036414</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.5429924253966</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.1904539888237</v>
       </c>
       <c r="U40" t="n">
         <v>286.2455595423701</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>412.2999511423612</v>
       </c>
       <c r="H41" t="n">
-        <v>308.7225161755968</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>94.71096793404135</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>22.86877923177566</v>
       </c>
       <c r="T41" t="n">
         <v>209.9511522173138</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1054299980146</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>194.5407285150683</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>170.0404575966174</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>22.04742979312147</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>116.7297746036414</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>200.5429924253966</v>
@@ -25845,7 +25845,7 @@
         <v>286.2455595423701</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.2999511423612</v>
       </c>
       <c r="H44" t="n">
         <v>308.7225161755968</v>
       </c>
       <c r="I44" t="n">
-        <v>94.71096793404135</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>140.5940751166608</v>
       </c>
       <c r="T44" t="n">
         <v>209.9511522173138</v>
       </c>
       <c r="U44" t="n">
-        <v>157.5261963099213</v>
+        <v>251.1054299980146</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>126.0344067656918</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.280286061405</v>
+        <v>150.2515928057593</v>
       </c>
       <c r="I46" t="n">
         <v>114.9441174086916</v>
@@ -26076,16 +26076,16 @@
         <v>200.5429924253966</v>
       </c>
       <c r="T46" t="n">
-        <v>222.1904539888237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>147.0153026033495</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670415.4256133965</v>
+        <v>670415.4256133963</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841326.6015927984</v>
+        <v>841326.6015927981</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841326.6015927984</v>
+        <v>841326.6015927983</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841326.6015927984</v>
+        <v>841326.6015927981</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841326.6015927981</v>
+        <v>841326.6015927984</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841326.6015927983</v>
+        <v>841326.6015927981</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841326.6015927981</v>
+        <v>841326.6015927985</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841326.6015927981</v>
+        <v>841326.6015927983</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665371.5793915673</v>
+        <v>665371.5793915674</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>665371.5793915673</v>
+        <v>665371.5793915674</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049984</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049982</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>415281.1666909346</v>
+        <v>415281.166690935</v>
       </c>
       <c r="F2" t="n">
-        <v>415281.1666909346</v>
+        <v>415281.1666909349</v>
       </c>
       <c r="G2" t="n">
-        <v>521164.5738978328</v>
+        <v>521164.5738978329</v>
       </c>
       <c r="H2" t="n">
-        <v>521164.5738978328</v>
+        <v>521164.5738978329</v>
       </c>
       <c r="I2" t="n">
-        <v>521164.5738978328</v>
+        <v>521164.5738978331</v>
       </c>
       <c r="J2" t="n">
-        <v>521164.5738978328</v>
+        <v>521164.5738978331</v>
       </c>
       <c r="K2" t="n">
         <v>521164.5738978329</v>
@@ -26346,16 +26346,16 @@
         <v>521164.5738978329</v>
       </c>
       <c r="M2" t="n">
-        <v>521164.5738978328</v>
+        <v>521164.573897833</v>
       </c>
       <c r="N2" t="n">
-        <v>521164.5738978329</v>
+        <v>521164.573897833</v>
       </c>
       <c r="O2" t="n">
-        <v>422948.8298551365</v>
+        <v>422948.8298551367</v>
       </c>
       <c r="P2" t="n">
-        <v>422948.8298551366</v>
+        <v>422948.8298551367</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>243808.4741313342</v>
+        <v>243808.474131334</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.555957334692886e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910635</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664028</v>
+        <v>104104.2745664029</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26444,22 +26444,22 @@
         <v>60314.6384243186</v>
       </c>
       <c r="K4" t="n">
-        <v>60314.63842431862</v>
+        <v>60314.63842431863</v>
       </c>
       <c r="L4" t="n">
         <v>60314.6384243186</v>
       </c>
       <c r="M4" t="n">
+        <v>60314.63842431862</v>
+      </c>
+      <c r="N4" t="n">
         <v>60314.6384243186</v>
       </c>
-      <c r="N4" t="n">
-        <v>60314.63842431862</v>
-      </c>
       <c r="O4" t="n">
-        <v>31468.49674110359</v>
+        <v>31468.49674110361</v>
       </c>
       <c r="P4" t="n">
-        <v>31468.49674110358</v>
+        <v>31468.4967411036</v>
       </c>
     </row>
     <row r="5">
@@ -26484,22 +26484,22 @@
         <v>52990.47783747559</v>
       </c>
       <c r="G5" t="n">
-        <v>83951.52114103935</v>
+        <v>83951.52114103934</v>
       </c>
       <c r="H5" t="n">
-        <v>83951.52114103935</v>
+        <v>83951.52114103934</v>
       </c>
       <c r="I5" t="n">
         <v>83951.52114103935</v>
       </c>
       <c r="J5" t="n">
-        <v>83951.52114103935</v>
+        <v>83951.52114103938</v>
       </c>
       <c r="K5" t="n">
-        <v>83951.52114103935</v>
+        <v>83951.52114103938</v>
       </c>
       <c r="L5" t="n">
-        <v>83951.52114103935</v>
+        <v>83951.52114103938</v>
       </c>
       <c r="M5" t="n">
         <v>83951.52114103934</v>
@@ -26508,10 +26508,10 @@
         <v>83951.52114103934</v>
       </c>
       <c r="O5" t="n">
-        <v>56336.05865306525</v>
+        <v>56336.05865306527</v>
       </c>
       <c r="P5" t="n">
-        <v>56336.05865306525</v>
+        <v>56336.05865306527</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99612.84990441811</v>
+        <v>99612.84990441799</v>
       </c>
       <c r="C6" t="n">
-        <v>180382.2814359656</v>
+        <v>180382.2814359659</v>
       </c>
       <c r="D6" t="n">
-        <v>180382.2814359654</v>
+        <v>180382.2814359657</v>
       </c>
       <c r="E6" t="n">
-        <v>-292941.8690876689</v>
+        <v>-287816.7524807879</v>
       </c>
       <c r="F6" t="n">
-        <v>308588.7354364516</v>
+        <v>313713.8520433324</v>
       </c>
       <c r="G6" t="n">
-        <v>131176.9164508847</v>
+        <v>132898.6378261154</v>
       </c>
       <c r="H6" t="n">
-        <v>374985.390582219</v>
+        <v>376707.1119574492</v>
       </c>
       <c r="I6" t="n">
-        <v>374985.390582219</v>
+        <v>376707.1119574496</v>
       </c>
       <c r="J6" t="n">
-        <v>311925.4479831128</v>
+        <v>313647.1693583432</v>
       </c>
       <c r="K6" t="n">
-        <v>374985.390582219</v>
+        <v>376707.1119574493</v>
       </c>
       <c r="L6" t="n">
-        <v>374985.390582219</v>
+        <v>376707.1119574494</v>
       </c>
       <c r="M6" t="n">
-        <v>270881.1160158161</v>
+        <v>272602.8373910466</v>
       </c>
       <c r="N6" t="n">
-        <v>374985.390582219</v>
+        <v>376707.1119574495</v>
       </c>
       <c r="O6" t="n">
-        <v>329723.5455663298</v>
+        <v>334602.2015715041</v>
       </c>
       <c r="P6" t="n">
-        <v>329723.5455663298</v>
+        <v>334602.2015715041</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="G3" t="n">
-        <v>746.9431102274997</v>
+        <v>746.9431102274996</v>
       </c>
       <c r="H3" t="n">
-        <v>746.9431102274997</v>
+        <v>746.9431102274996</v>
       </c>
       <c r="I3" t="n">
         <v>746.9431102274997</v>
@@ -26813,13 +26813,13 @@
         <v>1112.963179902629</v>
       </c>
       <c r="J4" t="n">
-        <v>1112.963179902629</v>
+        <v>1112.96317990263</v>
       </c>
       <c r="K4" t="n">
-        <v>1112.963179902629</v>
+        <v>1112.96317990263</v>
       </c>
       <c r="L4" t="n">
-        <v>1112.963179902629</v>
+        <v>1112.96317990263</v>
       </c>
       <c r="M4" t="n">
         <v>1112.963179902629</v>
@@ -26828,10 +26828,10 @@
         <v>1112.963179902629</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7614942451605</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451605</v>
+        <v>658.7614942451607</v>
       </c>
     </row>
   </sheetData>
@@ -26974,10 +26974,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>153.4670098894346</v>
+        <v>153.4670098894345</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.032053167455549e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>454.2016856574687</v>
+        <v>454.2016856574685</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776595</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675015</v>
+        <v>417.7472053675017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>454.2016856574687</v>
+        <v>454.2016856574685</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182.5730085546286</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63.30063122618253</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>118.9732107681514</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>34.50357226344606</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>224.9573404408503</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,13 +27706,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>97.47071887126955</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>243.9983090576768</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>40.41943799383367</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>169.5702675696171</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.55953011607097</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.3886183277161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -32238,22 +32238,22 @@
         <v>254.8577399062161</v>
       </c>
       <c r="K17" t="n">
-        <v>381.965687065734</v>
+        <v>381.9656870657339</v>
       </c>
       <c r="L17" t="n">
         <v>473.8622105215122</v>
       </c>
       <c r="M17" t="n">
-        <v>527.2630126783295</v>
+        <v>527.2630126783293</v>
       </c>
       <c r="N17" t="n">
-        <v>535.7946794599733</v>
+        <v>535.7946794599732</v>
       </c>
       <c r="O17" t="n">
-        <v>505.9357224657031</v>
+        <v>505.935722465703</v>
       </c>
       <c r="P17" t="n">
-        <v>431.8044338878482</v>
+        <v>431.8044338878481</v>
       </c>
       <c r="Q17" t="n">
         <v>324.267146912884</v>
@@ -32262,7 +32262,7 @@
         <v>188.6237794887565</v>
       </c>
       <c r="S17" t="n">
-        <v>68.42599446958454</v>
+        <v>68.42599446958452</v>
       </c>
       <c r="T17" t="n">
         <v>13.1446973468176</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.60663235030066</v>
+        <v>1.606632350300659</v>
       </c>
       <c r="H18" t="n">
-        <v>15.51668612000901</v>
+        <v>15.516686120009</v>
       </c>
       <c r="I18" t="n">
-        <v>55.31606995552711</v>
+        <v>55.3160699555271</v>
       </c>
       <c r="J18" t="n">
         <v>151.7915239378356</v>
       </c>
       <c r="K18" t="n">
-        <v>259.4358914079798</v>
+        <v>259.4358914079797</v>
       </c>
       <c r="L18" t="n">
-        <v>348.8435723755885</v>
+        <v>348.8435723755884</v>
       </c>
       <c r="M18" t="n">
-        <v>407.0839950739873</v>
+        <v>407.0839950739872</v>
       </c>
       <c r="N18" t="n">
-        <v>417.8582971073633</v>
+        <v>417.8582971073632</v>
       </c>
       <c r="O18" t="n">
         <v>382.258706608596</v>
       </c>
       <c r="P18" t="n">
-        <v>306.7963125762725</v>
+        <v>306.7963125762724</v>
       </c>
       <c r="Q18" t="n">
-        <v>205.0852101892562</v>
+        <v>205.0852101892561</v>
       </c>
       <c r="R18" t="n">
-        <v>99.75213838094801</v>
+        <v>99.752138380948</v>
       </c>
       <c r="S18" t="n">
         <v>29.8424912435232</v>
       </c>
       <c r="T18" t="n">
-        <v>6.475855833010113</v>
+        <v>6.475855833010112</v>
       </c>
       <c r="U18" t="n">
         <v>0.1056994967303066</v>
@@ -32393,19 +32393,19 @@
         <v>40.50635751856671</v>
       </c>
       <c r="J19" t="n">
-        <v>95.22912406949614</v>
+        <v>95.22912406949612</v>
       </c>
       <c r="K19" t="n">
         <v>156.4907040771712</v>
       </c>
       <c r="L19" t="n">
-        <v>200.2542233550907</v>
+        <v>200.2542233550906</v>
       </c>
       <c r="M19" t="n">
         <v>211.1400008139799</v>
       </c>
       <c r="N19" t="n">
-        <v>206.1195635157297</v>
+        <v>206.1195635157296</v>
       </c>
       <c r="O19" t="n">
         <v>190.3847783248716</v>
@@ -32414,19 +32414,19 @@
         <v>162.9070678437156</v>
       </c>
       <c r="Q19" t="n">
-        <v>112.7884096443525</v>
+        <v>112.7884096443524</v>
       </c>
       <c r="R19" t="n">
-        <v>60.56361677352807</v>
+        <v>60.56361677352806</v>
       </c>
       <c r="S19" t="n">
         <v>23.47360561157567</v>
       </c>
       <c r="T19" t="n">
-        <v>5.755135439457782</v>
+        <v>5.755135439457781</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07346981412073775</v>
+        <v>0.07346981412073773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32475,22 +32475,22 @@
         <v>254.8577399062161</v>
       </c>
       <c r="K20" t="n">
-        <v>381.965687065734</v>
+        <v>381.9656870657339</v>
       </c>
       <c r="L20" t="n">
         <v>473.8622105215122</v>
       </c>
       <c r="M20" t="n">
-        <v>527.2630126783295</v>
+        <v>527.2630126783293</v>
       </c>
       <c r="N20" t="n">
-        <v>535.7946794599733</v>
+        <v>535.7946794599732</v>
       </c>
       <c r="O20" t="n">
-        <v>505.9357224657031</v>
+        <v>505.935722465703</v>
       </c>
       <c r="P20" t="n">
-        <v>431.8044338878482</v>
+        <v>431.8044338878481</v>
       </c>
       <c r="Q20" t="n">
         <v>324.267146912884</v>
@@ -32499,7 +32499,7 @@
         <v>188.6237794887565</v>
       </c>
       <c r="S20" t="n">
-        <v>68.42599446958454</v>
+        <v>68.42599446958452</v>
       </c>
       <c r="T20" t="n">
         <v>13.1446973468176</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.60663235030066</v>
+        <v>1.606632350300659</v>
       </c>
       <c r="H21" t="n">
-        <v>15.51668612000901</v>
+        <v>15.516686120009</v>
       </c>
       <c r="I21" t="n">
-        <v>55.31606995552711</v>
+        <v>55.3160699555271</v>
       </c>
       <c r="J21" t="n">
         <v>151.7915239378356</v>
       </c>
       <c r="K21" t="n">
-        <v>259.4358914079798</v>
+        <v>259.4358914079797</v>
       </c>
       <c r="L21" t="n">
-        <v>348.8435723755885</v>
+        <v>348.8435723755884</v>
       </c>
       <c r="M21" t="n">
-        <v>407.0839950739873</v>
+        <v>407.0839950739872</v>
       </c>
       <c r="N21" t="n">
-        <v>417.8582971073633</v>
+        <v>417.8582971073632</v>
       </c>
       <c r="O21" t="n">
         <v>382.258706608596</v>
       </c>
       <c r="P21" t="n">
-        <v>306.7963125762725</v>
+        <v>306.7963125762724</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.0852101892562</v>
+        <v>205.0852101892561</v>
       </c>
       <c r="R21" t="n">
-        <v>99.75213838094801</v>
+        <v>99.752138380948</v>
       </c>
       <c r="S21" t="n">
         <v>29.8424912435232</v>
       </c>
       <c r="T21" t="n">
-        <v>6.475855833010113</v>
+        <v>6.475855833010112</v>
       </c>
       <c r="U21" t="n">
         <v>0.1056994967303066</v>
@@ -32630,19 +32630,19 @@
         <v>40.50635751856671</v>
       </c>
       <c r="J22" t="n">
-        <v>95.22912406949614</v>
+        <v>95.22912406949612</v>
       </c>
       <c r="K22" t="n">
         <v>156.4907040771712</v>
       </c>
       <c r="L22" t="n">
-        <v>200.2542233550907</v>
+        <v>200.2542233550906</v>
       </c>
       <c r="M22" t="n">
         <v>211.1400008139799</v>
       </c>
       <c r="N22" t="n">
-        <v>206.1195635157297</v>
+        <v>206.1195635157296</v>
       </c>
       <c r="O22" t="n">
         <v>190.3847783248716</v>
@@ -32651,19 +32651,19 @@
         <v>162.9070678437156</v>
       </c>
       <c r="Q22" t="n">
-        <v>112.7884096443525</v>
+        <v>112.7884096443524</v>
       </c>
       <c r="R22" t="n">
-        <v>60.56361677352807</v>
+        <v>60.56361677352806</v>
       </c>
       <c r="S22" t="n">
         <v>23.47360561157567</v>
       </c>
       <c r="T22" t="n">
-        <v>5.755135439457782</v>
+        <v>5.755135439457781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07346981412073775</v>
+        <v>0.07346981412073773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>658.7614942451607</v>
+        <v>377.4642727362761</v>
       </c>
       <c r="O12" t="n">
-        <v>273.6886459181083</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
         <v>428.2502711927643</v>
@@ -35652,7 +35652,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>531.9621452441386</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
         <v>638.0987989730422</v>
@@ -35661,7 +35661,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P14" t="n">
         <v>111.8528537874005</v>
@@ -35737,13 +35737,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>658.7614942451607</v>
+        <v>377.4642727362761</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>146.953049683879</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
         <v>22.96660727472423</v>
@@ -35886,28 +35886,28 @@
         <v>242.9084505516036</v>
       </c>
       <c r="K17" t="n">
-        <v>486.0212485919182</v>
+        <v>486.0212485919181</v>
       </c>
       <c r="L17" t="n">
-        <v>655.7570101019754</v>
+        <v>655.7570101019753</v>
       </c>
       <c r="M17" t="n">
-        <v>746.4303129438892</v>
+        <v>746.4303129438891</v>
       </c>
       <c r="N17" t="n">
-        <v>743.7285402753665</v>
+        <v>743.7285402753664</v>
       </c>
       <c r="O17" t="n">
         <v>656.6376923067617</v>
       </c>
       <c r="P17" t="n">
-        <v>522.3701463040613</v>
+        <v>522.3701463040612</v>
       </c>
       <c r="Q17" t="n">
         <v>314.2764476983392</v>
       </c>
       <c r="R17" t="n">
-        <v>38.75466154760684</v>
+        <v>38.75466154760682</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>151.0449326115777</v>
       </c>
       <c r="K18" t="n">
-        <v>386.0596894461994</v>
+        <v>386.0596894461993</v>
       </c>
       <c r="L18" t="n">
-        <v>469.9978694675723</v>
+        <v>581.1295378991733</v>
       </c>
       <c r="M18" t="n">
-        <v>264.949961151969</v>
+        <v>264.9499611519689</v>
       </c>
       <c r="N18" t="n">
         <v>286.51658502403</v>
       </c>
       <c r="O18" t="n">
-        <v>239.6624621641516</v>
+        <v>239.6624621641515</v>
       </c>
       <c r="P18" t="n">
-        <v>491.2846738018794</v>
+        <v>380.1530053702785</v>
       </c>
       <c r="Q18" t="n">
         <v>275.1807238390837</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.869943952823363</v>
+        <v>1.869943952823348</v>
       </c>
       <c r="K19" t="n">
         <v>134.2212122512883</v>
@@ -36056,13 +36056,13 @@
         <v>250.2517358949582</v>
       </c>
       <c r="O19" t="n">
-        <v>214.9699062389113</v>
+        <v>214.9699062389112</v>
       </c>
       <c r="P19" t="n">
         <v>160.1856271086091</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.62636639265807</v>
+        <v>26.62636639265804</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>242.9084505516036</v>
       </c>
       <c r="K20" t="n">
-        <v>486.0212485919182</v>
+        <v>486.0212485919181</v>
       </c>
       <c r="L20" t="n">
-        <v>655.7570101019754</v>
+        <v>655.7570101019753</v>
       </c>
       <c r="M20" t="n">
-        <v>746.4303129438892</v>
+        <v>746.4303129438891</v>
       </c>
       <c r="N20" t="n">
-        <v>743.7285402753665</v>
+        <v>743.7285402753664</v>
       </c>
       <c r="O20" t="n">
         <v>656.6376923067617</v>
       </c>
       <c r="P20" t="n">
-        <v>522.3701463040613</v>
+        <v>522.3701463040612</v>
       </c>
       <c r="Q20" t="n">
         <v>314.2764476983392</v>
       </c>
       <c r="R20" t="n">
-        <v>38.75466154760684</v>
+        <v>38.75466154760682</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>39.91326417997671</v>
+        <v>24.95389727116887</v>
       </c>
       <c r="K21" t="n">
-        <v>386.0596894461994</v>
+        <v>377.9970823817371</v>
       </c>
       <c r="L21" t="n">
-        <v>581.1295378991734</v>
+        <v>210.2891925957142</v>
       </c>
       <c r="M21" t="n">
-        <v>264.949961151969</v>
+        <v>264.9499611519689</v>
       </c>
       <c r="N21" t="n">
         <v>286.51658502403</v>
       </c>
       <c r="O21" t="n">
-        <v>239.6624621641516</v>
+        <v>633.524781440881</v>
       </c>
       <c r="P21" t="n">
         <v>491.2846738018794</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.869943952823363</v>
+        <v>1.869943952823348</v>
       </c>
       <c r="K22" t="n">
         <v>134.2212122512883</v>
@@ -36293,13 +36293,13 @@
         <v>250.2517358949582</v>
       </c>
       <c r="O22" t="n">
-        <v>214.9699062389113</v>
+        <v>214.9699062389112</v>
       </c>
       <c r="P22" t="n">
         <v>160.1856271086091</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.62636639265807</v>
+        <v>26.62636639265804</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>386.0596894461994</v>
       </c>
       <c r="L24" t="n">
-        <v>581.1295378991734</v>
+        <v>469.9978694675725</v>
       </c>
       <c r="M24" t="n">
         <v>264.949961151969</v>
@@ -36457,7 +36457,7 @@
         <v>491.2846738018794</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.0490554074827</v>
+        <v>275.1807238390837</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>39.91326417997674</v>
+        <v>151.0449326115777</v>
       </c>
       <c r="K27" t="n">
         <v>386.0596894461994</v>
       </c>
       <c r="L27" t="n">
-        <v>581.1295378991734</v>
+        <v>210.2891925957143</v>
       </c>
       <c r="M27" t="n">
         <v>264.949961151969</v>
@@ -36688,7 +36688,7 @@
         <v>286.51658502403</v>
       </c>
       <c r="O27" t="n">
-        <v>239.6624621641516</v>
+        <v>499.3711390360098</v>
       </c>
       <c r="P27" t="n">
         <v>491.2846738018794</v>
@@ -36843,7 +36843,7 @@
         <v>746.4303129438892</v>
       </c>
       <c r="N29" t="n">
-        <v>743.7285402753677</v>
+        <v>743.7285402753665</v>
       </c>
       <c r="O29" t="n">
         <v>656.6376923067617</v>
@@ -36855,7 +36855,7 @@
         <v>314.2764476983392</v>
       </c>
       <c r="R29" t="n">
-        <v>38.75466154760684</v>
+        <v>38.7546615476087</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>39.91326417997671</v>
+        <v>24.9538972711689</v>
       </c>
       <c r="K30" t="n">
         <v>386.0596894461994</v>
@@ -36925,7 +36925,7 @@
         <v>286.51658502403</v>
       </c>
       <c r="O30" t="n">
-        <v>239.6624621641516</v>
+        <v>254.6218290729595</v>
       </c>
       <c r="P30" t="n">
         <v>491.2846738018794</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.9538972711689</v>
+        <v>151.0449326115777</v>
       </c>
       <c r="K33" t="n">
         <v>386.0596894461994</v>
       </c>
       <c r="L33" t="n">
-        <v>581.1295378991734</v>
+        <v>469.9978694675723</v>
       </c>
       <c r="M33" t="n">
         <v>264.949961151969</v>
@@ -37162,7 +37162,7 @@
         <v>286.51658502403</v>
       </c>
       <c r="O33" t="n">
-        <v>254.6218290729595</v>
+        <v>239.6624621641516</v>
       </c>
       <c r="P33" t="n">
         <v>491.2846738018794</v>
@@ -37329,7 +37329,7 @@
         <v>314.2764476983392</v>
       </c>
       <c r="R35" t="n">
-        <v>38.75466154760682</v>
+        <v>38.75466154760777</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>24.95389727116887</v>
       </c>
       <c r="K36" t="n">
-        <v>386.0596894461993</v>
+        <v>121.5944524336207</v>
       </c>
       <c r="L36" t="n">
-        <v>581.1295378991733</v>
+        <v>210.2891925957142</v>
       </c>
       <c r="M36" t="n">
-        <v>279.9093280607771</v>
+        <v>730.6550249019688</v>
       </c>
       <c r="N36" t="n">
-        <v>286.51658502403</v>
+        <v>765.8589593675835</v>
       </c>
       <c r="O36" t="n">
-        <v>239.6624621641515</v>
+        <v>473.4200296712304</v>
       </c>
       <c r="P36" t="n">
-        <v>491.2846738018794</v>
+        <v>172.8219051619422</v>
       </c>
       <c r="Q36" t="n">
-        <v>275.1807238390837</v>
+        <v>65.10343610323463</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>314.2764476983392</v>
       </c>
       <c r="R38" t="n">
-        <v>38.75466154760777</v>
+        <v>38.75466154760682</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.95389727116887</v>
+        <v>151.0449326115777</v>
       </c>
       <c r="K39" t="n">
-        <v>386.0596894461993</v>
+        <v>121.5944524336207</v>
       </c>
       <c r="L39" t="n">
-        <v>581.1295378991733</v>
+        <v>210.2891925957142</v>
       </c>
       <c r="M39" t="n">
-        <v>279.9093280607771</v>
+        <v>730.6550249019688</v>
       </c>
       <c r="N39" t="n">
-        <v>286.51658502403</v>
+        <v>765.8589593675835</v>
       </c>
       <c r="O39" t="n">
         <v>239.6624621641515</v>
       </c>
       <c r="P39" t="n">
-        <v>491.2846738018794</v>
+        <v>172.8219051619422</v>
       </c>
       <c r="Q39" t="n">
-        <v>275.1807238390837</v>
+        <v>172.7699682699044</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.81183537952981</v>
+        <v>242.9084505516036</v>
       </c>
       <c r="K41" t="n">
-        <v>161.8758360207534</v>
+        <v>486.0212485919181</v>
       </c>
       <c r="L41" t="n">
-        <v>655.7570101019753</v>
+        <v>238.0957955515249</v>
       </c>
       <c r="M41" t="n">
-        <v>658.7614942451605</v>
+        <v>296.9167794510566</v>
       </c>
       <c r="N41" t="n">
-        <v>479.852768988086</v>
+        <v>306.3816158633823</v>
       </c>
       <c r="O41" t="n">
         <v>275.8375110440163</v>
       </c>
       <c r="P41" t="n">
-        <v>200.5714381325786</v>
+        <v>522.3701463040612</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.9614570384345</v>
+        <v>239.8978035929726</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>39.91326417997665</v>
+        <v>39.91326417997663</v>
       </c>
       <c r="K42" t="n">
         <v>386.0596894461993</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.81183537952981</v>
+        <v>242.9084505516036</v>
       </c>
       <c r="K44" t="n">
-        <v>486.0212485919181</v>
+        <v>231.5317101420559</v>
       </c>
       <c r="L44" t="n">
-        <v>545.1287572781354</v>
+        <v>238.0957955515249</v>
       </c>
       <c r="M44" t="n">
-        <v>296.9167794510566</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N44" t="n">
-        <v>306.3816158633823</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O44" t="n">
         <v>275.8375110440163</v>
       </c>
       <c r="P44" t="n">
-        <v>522.3701463040612</v>
+        <v>200.5714381325786</v>
       </c>
       <c r="Q44" t="n">
         <v>101.9614570384345</v>
@@ -38098,22 +38098,22 @@
         <v>151.0449326115777</v>
       </c>
       <c r="K45" t="n">
-        <v>386.0596894461993</v>
+        <v>121.5944524336207</v>
       </c>
       <c r="L45" t="n">
         <v>210.2891925957142</v>
       </c>
       <c r="M45" t="n">
-        <v>658.7614942451605</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N45" t="n">
-        <v>286.51658502403</v>
+        <v>341.4794151784826</v>
       </c>
       <c r="O45" t="n">
-        <v>239.6624621641515</v>
+        <v>633.524781440881</v>
       </c>
       <c r="P45" t="n">
-        <v>357.1818175805458</v>
+        <v>172.8219051619422</v>
       </c>
       <c r="Q45" t="n">
         <v>275.1807238390837</v>
